--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3327,28 +3327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1959.539305631593</v>
+        <v>2140.754688482175</v>
       </c>
       <c r="AB2" t="n">
-        <v>2681.128126738062</v>
+        <v>2929.075008212685</v>
       </c>
       <c r="AC2" t="n">
-        <v>2425.245021309141</v>
+        <v>2649.528200411459</v>
       </c>
       <c r="AD2" t="n">
-        <v>1959539.305631593</v>
+        <v>2140754.688482175</v>
       </c>
       <c r="AE2" t="n">
-        <v>2681128.126738062</v>
+        <v>2929075.008212685</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.462863773465922e-07</v>
+        <v>1.075894513036778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.72337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>2425245.021309141</v>
+        <v>2649528.200411459</v>
       </c>
     </row>
     <row r="3">
@@ -3433,28 +3433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1168.346791477606</v>
+        <v>1297.761967555287</v>
       </c>
       <c r="AB3" t="n">
-        <v>1598.583623922321</v>
+        <v>1775.655177226423</v>
       </c>
       <c r="AC3" t="n">
-        <v>1446.017046481382</v>
+        <v>1606.189139259626</v>
       </c>
       <c r="AD3" t="n">
-        <v>1168346.791477606</v>
+        <v>1297761.967555287</v>
       </c>
       <c r="AE3" t="n">
-        <v>1598583.623922321</v>
+        <v>1775655.177226423</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.049370028554698e-06</v>
+        <v>1.51283942751498e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.96412037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1446017.046481382</v>
+        <v>1606189.139259626</v>
       </c>
     </row>
     <row r="4">
@@ -3539,28 +3539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>989.5503287013676</v>
+        <v>1110.246796128993</v>
       </c>
       <c r="AB4" t="n">
-        <v>1353.946415608636</v>
+        <v>1519.088647095455</v>
       </c>
       <c r="AC4" t="n">
-        <v>1224.727669978677</v>
+        <v>1374.10895867097</v>
       </c>
       <c r="AD4" t="n">
-        <v>989550.3287013676</v>
+        <v>1110246.796128993</v>
       </c>
       <c r="AE4" t="n">
-        <v>1353946.415608637</v>
+        <v>1519088.647095455</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.169059448257223e-06</v>
+        <v>1.685391404658599e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.99537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1224727.669978677</v>
+        <v>1374108.958670971</v>
       </c>
     </row>
     <row r="5">
@@ -3645,28 +3645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>909.1221740691246</v>
+        <v>1021.270614555838</v>
       </c>
       <c r="AB5" t="n">
-        <v>1243.901066201041</v>
+        <v>1397.347510114971</v>
       </c>
       <c r="AC5" t="n">
-        <v>1125.184894268925</v>
+        <v>1263.986624939145</v>
       </c>
       <c r="AD5" t="n">
-        <v>909122.1740691246</v>
+        <v>1021270.614555838</v>
       </c>
       <c r="AE5" t="n">
-        <v>1243901.066201041</v>
+        <v>1397347.510114971</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.232344112909063e-06</v>
+        <v>1.776626653652921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.66435185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>1125184.894268925</v>
+        <v>1263986.624939145</v>
       </c>
     </row>
     <row r="6">
@@ -3751,28 +3751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>853.4572861793465</v>
+        <v>965.5203858114886</v>
       </c>
       <c r="AB6" t="n">
-        <v>1167.737910828712</v>
+        <v>1321.067587620444</v>
       </c>
       <c r="AC6" t="n">
-        <v>1056.290643549671</v>
+        <v>1194.986751187952</v>
       </c>
       <c r="AD6" t="n">
-        <v>853457.2861793465</v>
+        <v>965520.3858114886</v>
       </c>
       <c r="AE6" t="n">
-        <v>1167737.910828712</v>
+        <v>1321067.587620444</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.273571052122087e-06</v>
+        <v>1.836062064823496e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.86574074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>1056290.643549671</v>
+        <v>1194986.751187952</v>
       </c>
     </row>
     <row r="7">
@@ -3857,28 +3857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>809.3842756159498</v>
+        <v>912.8140969611596</v>
       </c>
       <c r="AB7" t="n">
-        <v>1107.435273411874</v>
+        <v>1248.952517978067</v>
       </c>
       <c r="AC7" t="n">
-        <v>1001.743205212612</v>
+        <v>1129.754242578108</v>
       </c>
       <c r="AD7" t="n">
-        <v>809384.2756159499</v>
+        <v>912814.0969611596</v>
       </c>
       <c r="AE7" t="n">
-        <v>1107435.273411873</v>
+        <v>1248952.517978067</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.309808743914427e-06</v>
+        <v>1.888304655533938e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.20601851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>1001743.205212612</v>
+        <v>1129754.242578108</v>
       </c>
     </row>
     <row r="8">
@@ -3963,28 +3963,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>792.3628025411244</v>
+        <v>887.3299377999939</v>
       </c>
       <c r="AB8" t="n">
-        <v>1084.145743016504</v>
+        <v>1214.083967132006</v>
       </c>
       <c r="AC8" t="n">
-        <v>980.6763949111147</v>
+        <v>1098.213497286476</v>
       </c>
       <c r="AD8" t="n">
-        <v>792362.8025411244</v>
+        <v>887329.9377999939</v>
       </c>
       <c r="AE8" t="n">
-        <v>1084145.743016504</v>
+        <v>1214083.967132006</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.319944793937502e-06</v>
+        <v>1.902917438152945e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.02662037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>980676.3949111147</v>
+        <v>1098213.497286476</v>
       </c>
     </row>
     <row r="9">
@@ -4069,28 +4069,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>756.6650727201497</v>
+        <v>860.1801454113801</v>
       </c>
       <c r="AB9" t="n">
-        <v>1035.302534202755</v>
+        <v>1176.936423421598</v>
       </c>
       <c r="AC9" t="n">
-        <v>936.4947133946765</v>
+        <v>1064.611263010885</v>
       </c>
       <c r="AD9" t="n">
-        <v>756665.0727201498</v>
+        <v>860180.1454113801</v>
       </c>
       <c r="AE9" t="n">
-        <v>1035302.534202755</v>
+        <v>1176936.423421598</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.336540606410516e-06</v>
+        <v>1.926843030420336e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.73726851851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>936494.7133946766</v>
+        <v>1064611.263010885</v>
       </c>
     </row>
     <row r="10">
@@ -4175,28 +4175,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>735.8748651585975</v>
+        <v>839.3899378498276</v>
       </c>
       <c r="AB10" t="n">
-        <v>1006.856455017814</v>
+        <v>1148.490344236657</v>
       </c>
       <c r="AC10" t="n">
-        <v>910.7634880828235</v>
+        <v>1038.880037699032</v>
       </c>
       <c r="AD10" t="n">
-        <v>735874.8651585975</v>
+        <v>839389.9378498276</v>
       </c>
       <c r="AE10" t="n">
-        <v>1006856.455017815</v>
+        <v>1148490.344236657</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.34531117819214e-06</v>
+        <v>1.939487251650254e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.59259259259259</v>
       </c>
       <c r="AH10" t="n">
-        <v>910763.4880828236</v>
+        <v>1038880.037699032</v>
       </c>
     </row>
     <row r="11">
@@ -4281,28 +4281,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>736.0950155345204</v>
+        <v>839.6100882257507</v>
       </c>
       <c r="AB11" t="n">
-        <v>1007.157674474501</v>
+        <v>1148.791563693344</v>
       </c>
       <c r="AC11" t="n">
-        <v>911.0359595773283</v>
+        <v>1039.152509193536</v>
       </c>
       <c r="AD11" t="n">
-        <v>736095.0155345204</v>
+        <v>839610.0882257507</v>
       </c>
       <c r="AE11" t="n">
-        <v>1007157.674474501</v>
+        <v>1148791.563693344</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.345731325343355e-06</v>
+        <v>1.940092962846897e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.58680555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>911035.9595773283</v>
+        <v>1039152.509193536</v>
       </c>
     </row>
   </sheetData>
@@ -4578,28 +4578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1476.213056088444</v>
+        <v>1627.726680078499</v>
       </c>
       <c r="AB2" t="n">
-        <v>2019.819829263887</v>
+        <v>2227.127453916415</v>
       </c>
       <c r="AC2" t="n">
-        <v>1827.051059593876</v>
+        <v>2014.573535507645</v>
       </c>
       <c r="AD2" t="n">
-        <v>1476213.056088444</v>
+        <v>1627726.680078499</v>
       </c>
       <c r="AE2" t="n">
-        <v>2019819.829263887</v>
+        <v>2227127.453916415</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.834527103639789e-07</v>
+        <v>1.293341533406996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.59027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1827051.059593876</v>
+        <v>2014573.535507645</v>
       </c>
     </row>
     <row r="3">
@@ -4684,28 +4684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>960.9090426708232</v>
+        <v>1078.667631586294</v>
       </c>
       <c r="AB3" t="n">
-        <v>1314.758144497284</v>
+        <v>1475.880640993719</v>
       </c>
       <c r="AC3" t="n">
-        <v>1189.279472461108</v>
+        <v>1335.024664028767</v>
       </c>
       <c r="AD3" t="n">
-        <v>960909.0426708232</v>
+        <v>1078667.631586294</v>
       </c>
       <c r="AE3" t="n">
-        <v>1314758.144497284</v>
+        <v>1475880.640993719</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.164716758181107e-06</v>
+        <v>1.705101518552315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.99652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1189279.472461108</v>
+        <v>1335024.664028767</v>
       </c>
     </row>
     <row r="4">
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>833.8350798080966</v>
+        <v>943.1762451685642</v>
       </c>
       <c r="AB4" t="n">
-        <v>1140.889942400919</v>
+        <v>1290.495348638881</v>
       </c>
       <c r="AC4" t="n">
-        <v>1032.005007547266</v>
+        <v>1167.332283786382</v>
       </c>
       <c r="AD4" t="n">
-        <v>833835.0798080965</v>
+        <v>943176.2451685641</v>
       </c>
       <c r="AE4" t="n">
-        <v>1140889.942400919</v>
+        <v>1290495.348638881</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.271094004776806e-06</v>
+        <v>1.860833805767793e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.7337962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1032005.007547266</v>
+        <v>1167332.283786382</v>
       </c>
     </row>
     <row r="5">
@@ -4896,28 +4896,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>767.2213737601024</v>
+        <v>868.2304564201389</v>
       </c>
       <c r="AB5" t="n">
-        <v>1049.746130996752</v>
+        <v>1187.951214098438</v>
       </c>
       <c r="AC5" t="n">
-        <v>949.5598335823698</v>
+        <v>1074.574817524883</v>
       </c>
       <c r="AD5" t="n">
-        <v>767221.3737601024</v>
+        <v>868230.4564201389</v>
       </c>
       <c r="AE5" t="n">
-        <v>1049746.130996752</v>
+        <v>1187951.214098438</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.327488071153893e-06</v>
+        <v>1.943392597458123e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.6863425925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>949559.8335823698</v>
+        <v>1074574.817524883</v>
       </c>
     </row>
     <row r="6">
@@ -5002,28 +5002,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>710.7116432382547</v>
+        <v>811.6353850437195</v>
       </c>
       <c r="AB6" t="n">
-        <v>972.4270246633989</v>
+        <v>1110.515340642887</v>
       </c>
       <c r="AC6" t="n">
-        <v>879.6199542394246</v>
+        <v>1004.529315149999</v>
       </c>
       <c r="AD6" t="n">
-        <v>710711.6432382547</v>
+        <v>811635.3850437194</v>
       </c>
       <c r="AE6" t="n">
-        <v>972427.024663399</v>
+        <v>1110515.340642887</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.370245422058293e-06</v>
+        <v>2.005987750695397e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.94560185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>879619.9542394246</v>
+        <v>1004529.315149999</v>
       </c>
     </row>
     <row r="7">
@@ -5108,28 +5108,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>685.0540445009851</v>
+        <v>785.97778630645</v>
       </c>
       <c r="AB7" t="n">
-        <v>937.3211661376985</v>
+        <v>1075.409482117186</v>
       </c>
       <c r="AC7" t="n">
-        <v>847.8645495800349</v>
+        <v>972.773910490609</v>
       </c>
       <c r="AD7" t="n">
-        <v>685054.0445009852</v>
+        <v>785977.7863064499</v>
       </c>
       <c r="AE7" t="n">
-        <v>937321.1661376985</v>
+        <v>1075409.482117186</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.383773478443549e-06</v>
+        <v>2.025792316332095e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.7199074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>847864.5495800349</v>
+        <v>972773.910490609</v>
       </c>
     </row>
     <row r="8">
@@ -5214,28 +5214,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>674.8205065908069</v>
+        <v>775.7442483962716</v>
       </c>
       <c r="AB8" t="n">
-        <v>923.3191880971632</v>
+        <v>1061.407504076651</v>
       </c>
       <c r="AC8" t="n">
-        <v>835.1989006717886</v>
+        <v>960.1082615823627</v>
       </c>
       <c r="AD8" t="n">
-        <v>674820.5065908069</v>
+        <v>775744.2483962716</v>
       </c>
       <c r="AE8" t="n">
-        <v>923319.1880971632</v>
+        <v>1061407.504076651</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.39154260319492e-06</v>
+        <v>2.037166022701765e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.59259259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>835198.9006717886</v>
+        <v>960108.2615823627</v>
       </c>
     </row>
     <row r="9">
@@ -5320,28 +5320,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>677.4644792213571</v>
+        <v>778.3882210268217</v>
       </c>
       <c r="AB9" t="n">
-        <v>926.9367880941222</v>
+        <v>1065.02510407361</v>
       </c>
       <c r="AC9" t="n">
-        <v>838.4712420023715</v>
+        <v>963.3806029129454</v>
       </c>
       <c r="AD9" t="n">
-        <v>677464.4792213571</v>
+        <v>778388.2210268218</v>
       </c>
       <c r="AE9" t="n">
-        <v>926936.7880941222</v>
+        <v>1065025.10407361</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.391433944107488e-06</v>
+        <v>2.037006949885406e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.59837962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>838471.2420023715</v>
+        <v>963380.6029129454</v>
       </c>
     </row>
   </sheetData>
@@ -5617,28 +5617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>695.3227994457706</v>
+        <v>803.979500870557</v>
       </c>
       <c r="AB2" t="n">
-        <v>951.3713296786492</v>
+        <v>1100.040222163394</v>
       </c>
       <c r="AC2" t="n">
-        <v>860.5737852321656</v>
+        <v>995.0539272762672</v>
       </c>
       <c r="AD2" t="n">
-        <v>695322.7994457706</v>
+        <v>803979.500870557</v>
       </c>
       <c r="AE2" t="n">
-        <v>951371.3296786492</v>
+        <v>1100040.222163394</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.319720725322786e-06</v>
+        <v>2.041770859050563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.58564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>860573.7852321656</v>
+        <v>995053.9272762672</v>
       </c>
     </row>
     <row r="3">
@@ -5723,28 +5723,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>539.7856677016166</v>
+        <v>632.8225403119028</v>
       </c>
       <c r="AB3" t="n">
-        <v>738.558564212328</v>
+        <v>865.8557178148599</v>
       </c>
       <c r="AC3" t="n">
-        <v>668.0715714173577</v>
+        <v>783.2196633427412</v>
       </c>
       <c r="AD3" t="n">
-        <v>539785.6677016167</v>
+        <v>632822.5403119028</v>
       </c>
       <c r="AE3" t="n">
-        <v>738558.5642123279</v>
+        <v>865855.7178148598</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.504987229828572e-06</v>
+        <v>2.32840100950573e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.31018518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>668071.5714173578</v>
+        <v>783219.6633427412</v>
       </c>
     </row>
     <row r="4">
@@ -5829,28 +5829,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>541.7156309358329</v>
+        <v>634.752503546119</v>
       </c>
       <c r="AB4" t="n">
-        <v>741.1992250533511</v>
+        <v>868.4963786558831</v>
       </c>
       <c r="AC4" t="n">
-        <v>670.4602112939045</v>
+        <v>785.6083032192881</v>
       </c>
       <c r="AD4" t="n">
-        <v>541715.6309358329</v>
+        <v>634752.503546119</v>
       </c>
       <c r="AE4" t="n">
-        <v>741199.2250533511</v>
+        <v>868496.378655883</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.505775339958995e-06</v>
+        <v>2.329620313156226e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.29861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>670460.2112939046</v>
+        <v>785608.3032192881</v>
       </c>
     </row>
   </sheetData>
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>927.9175571533414</v>
+        <v>1048.068947628918</v>
       </c>
       <c r="AB2" t="n">
-        <v>1269.617738530647</v>
+        <v>1434.014171684574</v>
       </c>
       <c r="AC2" t="n">
-        <v>1148.447203484969</v>
+        <v>1297.153871790528</v>
       </c>
       <c r="AD2" t="n">
-        <v>927917.5571533414</v>
+        <v>1048068.947628918</v>
       </c>
       <c r="AE2" t="n">
-        <v>1269617.738530647</v>
+        <v>1434014.171684573</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.145787141134788e-06</v>
+        <v>1.731621195512462e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.29398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>1148447.203484969</v>
+        <v>1297153.871790528</v>
       </c>
     </row>
     <row r="3">
@@ -6232,28 +6232,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>680.8449126742613</v>
+        <v>777.0172474691758</v>
       </c>
       <c r="AB3" t="n">
-        <v>931.5620462785843</v>
+        <v>1063.149277568954</v>
       </c>
       <c r="AC3" t="n">
-        <v>842.6550720372992</v>
+        <v>961.6838026571548</v>
       </c>
       <c r="AD3" t="n">
-        <v>680844.9126742613</v>
+        <v>777017.2474691758</v>
       </c>
       <c r="AE3" t="n">
-        <v>931562.0462785843</v>
+        <v>1063149.277568954</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.376034911447863e-06</v>
+        <v>2.079593262033239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.39236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>842655.0720372992</v>
+        <v>961683.8026571549</v>
       </c>
     </row>
     <row r="4">
@@ -6338,28 +6338,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>591.275241375891</v>
+        <v>687.4474866622544</v>
       </c>
       <c r="AB4" t="n">
-        <v>809.0088704731417</v>
+        <v>940.595979293963</v>
       </c>
       <c r="AC4" t="n">
-        <v>731.7981993262654</v>
+        <v>850.8268191648946</v>
       </c>
       <c r="AD4" t="n">
-        <v>591275.241375891</v>
+        <v>687447.4866622544</v>
       </c>
       <c r="AE4" t="n">
-        <v>809008.8704731417</v>
+        <v>940595.9792939629</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.459608472410367e-06</v>
+        <v>2.205897480636877e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.99768518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>731798.1993262654</v>
+        <v>850826.8191648945</v>
       </c>
     </row>
     <row r="5">
@@ -6444,28 +6444,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>584.4081572641003</v>
+        <v>680.5804025504635</v>
       </c>
       <c r="AB5" t="n">
-        <v>799.6130230370201</v>
+        <v>931.2001318578411</v>
       </c>
       <c r="AC5" t="n">
-        <v>723.2990783822926</v>
+        <v>842.3276982209217</v>
       </c>
       <c r="AD5" t="n">
-        <v>584408.1572641003</v>
+        <v>680580.4025504636</v>
       </c>
       <c r="AE5" t="n">
-        <v>799613.0230370201</v>
+        <v>931200.1318578412</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.466742093505709e-06</v>
+        <v>2.2166784791714e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.88194444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>723299.0783822925</v>
+        <v>842327.6982209217</v>
       </c>
     </row>
   </sheetData>
@@ -6741,28 +6741,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>537.9864105766236</v>
+        <v>636.1656210048869</v>
       </c>
       <c r="AB2" t="n">
-        <v>736.0967412362902</v>
+        <v>870.429868305312</v>
       </c>
       <c r="AC2" t="n">
-        <v>665.8447013709628</v>
+        <v>787.3572633302451</v>
       </c>
       <c r="AD2" t="n">
-        <v>537986.4105766236</v>
+        <v>636165.6210048869</v>
       </c>
       <c r="AE2" t="n">
-        <v>736096.7412362902</v>
+        <v>870429.868305312</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.473459557120905e-06</v>
+        <v>2.328785134285016e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.72800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>665844.7013709628</v>
+        <v>787357.2633302452</v>
       </c>
     </row>
     <row r="3">
@@ -6847,28 +6847,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>502.3869203353847</v>
+        <v>600.4807899090763</v>
       </c>
       <c r="AB3" t="n">
-        <v>687.3879481495607</v>
+        <v>821.6043080963847</v>
       </c>
       <c r="AC3" t="n">
-        <v>621.7846071332103</v>
+        <v>743.1915460605537</v>
       </c>
       <c r="AD3" t="n">
-        <v>502386.9203353847</v>
+        <v>600480.7899090763</v>
       </c>
       <c r="AE3" t="n">
-        <v>687387.9481495606</v>
+        <v>821604.3080963846</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.523829937673709e-06</v>
+        <v>2.408394915817706e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.91203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>621784.6071332103</v>
+        <v>743191.5460605538</v>
       </c>
     </row>
   </sheetData>
@@ -7144,28 +7144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1584.585705229753</v>
+        <v>1745.509834771548</v>
       </c>
       <c r="AB2" t="n">
-        <v>2168.100068882875</v>
+        <v>2388.283562393498</v>
       </c>
       <c r="AC2" t="n">
-        <v>1961.179641256251</v>
+        <v>2160.349131175694</v>
       </c>
       <c r="AD2" t="n">
-        <v>1584585.705229753</v>
+        <v>1745509.834771547</v>
       </c>
       <c r="AE2" t="n">
-        <v>2168100.068882875</v>
+        <v>2388283.562393498</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.469268787277302e-07</v>
+        <v>1.234723084205214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.78819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>1961179.641256251</v>
+        <v>2160349.131175695</v>
       </c>
     </row>
     <row r="3">
@@ -7250,28 +7250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1015.782776573955</v>
+        <v>1134.250741507527</v>
       </c>
       <c r="AB3" t="n">
-        <v>1389.838808081833</v>
+        <v>1551.931904141696</v>
       </c>
       <c r="AC3" t="n">
-        <v>1257.194542889521</v>
+        <v>1403.81770136052</v>
       </c>
       <c r="AD3" t="n">
-        <v>1015782.776573955</v>
+        <v>1134250.741507527</v>
       </c>
       <c r="AE3" t="n">
-        <v>1389838.808081833</v>
+        <v>1551931.904141696</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.133955943603606e-06</v>
+        <v>1.653178822405977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.47685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>1257194.542889521</v>
+        <v>1403817.70136052</v>
       </c>
     </row>
     <row r="4">
@@ -7356,28 +7356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>879.5316319211341</v>
+        <v>981.221913258969</v>
       </c>
       <c r="AB4" t="n">
-        <v>1203.413980991575</v>
+        <v>1342.551110176589</v>
       </c>
       <c r="AC4" t="n">
-        <v>1088.561839647869</v>
+        <v>1214.419916503653</v>
       </c>
       <c r="AD4" t="n">
-        <v>879531.6319211342</v>
+        <v>981221.9132589691</v>
       </c>
       <c r="AE4" t="n">
-        <v>1203413.980991575</v>
+        <v>1342551.110176589</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.243200357903578e-06</v>
+        <v>1.812444756153744e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.06365740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>1088561.839647869</v>
+        <v>1214419.916503652</v>
       </c>
     </row>
     <row r="5">
@@ -7462,28 +7462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>801.0108644847672</v>
+        <v>911.0045572573482</v>
       </c>
       <c r="AB5" t="n">
-        <v>1095.978402893362</v>
+        <v>1246.476625924055</v>
       </c>
       <c r="AC5" t="n">
-        <v>991.3797623365683</v>
+        <v>1127.514646186794</v>
       </c>
       <c r="AD5" t="n">
-        <v>801010.8644847672</v>
+        <v>911004.5572573482</v>
       </c>
       <c r="AE5" t="n">
-        <v>1095978.402893362</v>
+        <v>1246476.625924055</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.302264489242696e-06</v>
+        <v>1.898553543399334e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.92361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>991379.7623365683</v>
+        <v>1127514.646186794</v>
       </c>
     </row>
     <row r="6">
@@ -7568,28 +7568,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>758.6636727592906</v>
+        <v>860.1832723879825</v>
       </c>
       <c r="AB6" t="n">
-        <v>1038.037106948319</v>
+        <v>1176.940701888938</v>
       </c>
       <c r="AC6" t="n">
-        <v>938.9683023554004</v>
+        <v>1064.615133147306</v>
       </c>
       <c r="AD6" t="n">
-        <v>758663.6727592907</v>
+        <v>860183.2723879825</v>
       </c>
       <c r="AE6" t="n">
-        <v>1038037.106948319</v>
+        <v>1176940.701888938</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.339792018452692e-06</v>
+        <v>1.953264413691198e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.25810185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>938968.3023554004</v>
+        <v>1064615.133147306</v>
       </c>
     </row>
     <row r="7">
@@ -7674,28 +7674,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>717.5641993700056</v>
+        <v>819.1690503447179</v>
       </c>
       <c r="AB7" t="n">
-        <v>981.8029942763009</v>
+        <v>1120.823233869569</v>
       </c>
       <c r="AC7" t="n">
-        <v>888.1010944717269</v>
+        <v>1013.853437514345</v>
       </c>
       <c r="AD7" t="n">
-        <v>717564.1993700055</v>
+        <v>819169.0503447179</v>
       </c>
       <c r="AE7" t="n">
-        <v>981802.9942763009</v>
+        <v>1120823.233869569</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.363159231762789e-06</v>
+        <v>1.98733115358599e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.85879629629629</v>
       </c>
       <c r="AH7" t="n">
-        <v>888101.0944717269</v>
+        <v>1013853.437514345</v>
       </c>
     </row>
     <row r="8">
@@ -7780,28 +7780,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>691.7941835808878</v>
+        <v>793.3990345556</v>
       </c>
       <c r="AB8" t="n">
-        <v>946.5433217807712</v>
+        <v>1085.563561374039</v>
       </c>
       <c r="AC8" t="n">
-        <v>856.2065556319095</v>
+        <v>981.9588986745277</v>
       </c>
       <c r="AD8" t="n">
-        <v>691794.1835808877</v>
+        <v>793399.0345556</v>
       </c>
       <c r="AE8" t="n">
-        <v>946543.3217807711</v>
+        <v>1085563.561374039</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.377857962715915e-06</v>
+        <v>2.008760231906906e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.61574074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>856206.5556319095</v>
+        <v>981958.8986745278</v>
       </c>
     </row>
     <row r="9">
@@ -7886,28 +7886,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>691.9307416493299</v>
+        <v>793.5355926240424</v>
       </c>
       <c r="AB9" t="n">
-        <v>946.7301665545306</v>
+        <v>1085.750406147798</v>
       </c>
       <c r="AC9" t="n">
-        <v>856.3755682026996</v>
+        <v>982.1279112453179</v>
       </c>
       <c r="AD9" t="n">
-        <v>691930.7416493299</v>
+        <v>793535.5926240423</v>
       </c>
       <c r="AE9" t="n">
-        <v>946730.1665545306</v>
+        <v>1085750.406147799</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.378773268306403e-06</v>
+        <v>2.01009464337744e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.59837962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>856375.5682026995</v>
+        <v>982127.9112453179</v>
       </c>
     </row>
   </sheetData>
@@ -8183,28 +8183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>487.0135272906667</v>
+        <v>583.5878921896644</v>
       </c>
       <c r="AB2" t="n">
-        <v>666.3533935595432</v>
+        <v>798.4907001746358</v>
       </c>
       <c r="AC2" t="n">
-        <v>602.7575609110812</v>
+        <v>722.2838684387042</v>
       </c>
       <c r="AD2" t="n">
-        <v>487013.5272906667</v>
+        <v>583587.8921896644</v>
       </c>
       <c r="AE2" t="n">
-        <v>666353.3935595432</v>
+        <v>798490.7001746357</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.5204121264299e-06</v>
+        <v>2.436057367818758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.52546296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>602757.5609110813</v>
+        <v>722283.8684387042</v>
       </c>
     </row>
     <row r="3">
@@ -8289,28 +8289,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>490.8815742164252</v>
+        <v>587.4559391154229</v>
       </c>
       <c r="AB3" t="n">
-        <v>671.6458260095527</v>
+        <v>803.7831326246455</v>
       </c>
       <c r="AC3" t="n">
-        <v>607.5448910360376</v>
+        <v>727.0711985636605</v>
       </c>
       <c r="AD3" t="n">
-        <v>490881.5742164252</v>
+        <v>587455.9391154229</v>
       </c>
       <c r="AE3" t="n">
-        <v>671645.8260095527</v>
+        <v>803783.1326246455</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.520283256102181e-06</v>
+        <v>2.435850887282411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.52546296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>607544.8910360376</v>
+        <v>727071.1985636605</v>
       </c>
     </row>
   </sheetData>
@@ -8586,28 +8586,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1183.872510226941</v>
+        <v>1315.518664032487</v>
       </c>
       <c r="AB2" t="n">
-        <v>1619.82659726153</v>
+        <v>1799.950672716689</v>
       </c>
       <c r="AC2" t="n">
-        <v>1465.232620259797</v>
+        <v>1628.165906759243</v>
       </c>
       <c r="AD2" t="n">
-        <v>1183872.510226941</v>
+        <v>1315518.664032487</v>
       </c>
       <c r="AE2" t="n">
-        <v>1619826.59726153</v>
+        <v>1799950.672716689</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.003710412120334e-06</v>
+        <v>1.490352577324897e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.27430555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1465232.620259797</v>
+        <v>1628165.906759243</v>
       </c>
     </row>
     <row r="3">
@@ -8692,28 +8692,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>819.9045149974083</v>
+        <v>926.9362816830559</v>
       </c>
       <c r="AB3" t="n">
-        <v>1121.829529053791</v>
+        <v>1268.275114141385</v>
       </c>
       <c r="AC3" t="n">
-        <v>1014.763693298529</v>
+        <v>1147.232717283032</v>
       </c>
       <c r="AD3" t="n">
-        <v>819904.5149974084</v>
+        <v>926936.2816830559</v>
       </c>
       <c r="AE3" t="n">
-        <v>1121829.52905379</v>
+        <v>1268275.114141385</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.262768567677353e-06</v>
+        <v>1.875013317264645e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.65393518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>1014763.693298529</v>
+        <v>1147232.717283032</v>
       </c>
     </row>
     <row r="4">
@@ -8798,28 +8798,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>715.8720336598408</v>
+        <v>822.7331186363452</v>
       </c>
       <c r="AB4" t="n">
-        <v>979.487698498571</v>
+        <v>1125.69974934177</v>
       </c>
       <c r="AC4" t="n">
-        <v>886.0067672734859</v>
+        <v>1018.264545194111</v>
       </c>
       <c r="AD4" t="n">
-        <v>715872.0336598408</v>
+        <v>822733.1186363453</v>
       </c>
       <c r="AE4" t="n">
-        <v>979487.6984985711</v>
+        <v>1125699.74934177</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.358040171125505e-06</v>
+        <v>2.01647670952425e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.85416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>886006.7672734859</v>
+        <v>1018264.545194111</v>
       </c>
     </row>
     <row r="5">
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>654.6669735187704</v>
+        <v>753.3801865278738</v>
       </c>
       <c r="AB5" t="n">
-        <v>895.7442350368741</v>
+        <v>1030.808007995532</v>
       </c>
       <c r="AC5" t="n">
-        <v>810.2556624298838</v>
+        <v>932.4291384605638</v>
       </c>
       <c r="AD5" t="n">
-        <v>654666.9735187704</v>
+        <v>753380.1865278737</v>
       </c>
       <c r="AE5" t="n">
-        <v>895744.2350368741</v>
+        <v>1030808.007995532</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.409258453825304e-06</v>
+        <v>2.092527828159701e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.98611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>810255.6624298838</v>
+        <v>932429.1384605637</v>
       </c>
     </row>
     <row r="6">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>630.2464098568179</v>
+        <v>728.9596228659211</v>
       </c>
       <c r="AB6" t="n">
-        <v>862.3309424753581</v>
+        <v>997.3947154340162</v>
       </c>
       <c r="AC6" t="n">
-        <v>780.0312876145882</v>
+        <v>902.204763645268</v>
       </c>
       <c r="AD6" t="n">
-        <v>630246.4098568179</v>
+        <v>728959.6228659211</v>
       </c>
       <c r="AE6" t="n">
-        <v>862330.9424753581</v>
+        <v>997394.7154340162</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.42655511978622e-06</v>
+        <v>2.118210664944789e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.70833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>780031.2876145883</v>
+        <v>902204.763645268</v>
       </c>
     </row>
     <row r="7">
@@ -9116,28 +9116,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>630.3088486020841</v>
+        <v>729.0220616111874</v>
       </c>
       <c r="AB7" t="n">
-        <v>862.4163739212343</v>
+        <v>997.4801468798923</v>
       </c>
       <c r="AC7" t="n">
-        <v>780.1085656031739</v>
+        <v>902.2820416338537</v>
       </c>
       <c r="AD7" t="n">
-        <v>630308.8486020841</v>
+        <v>729022.0616111874</v>
       </c>
       <c r="AE7" t="n">
-        <v>862416.3739212343</v>
+        <v>997480.1468798923</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.429857719435715e-06</v>
+        <v>2.123114507567183e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.65625</v>
       </c>
       <c r="AH7" t="n">
-        <v>780108.5656031739</v>
+        <v>902282.0416338537</v>
       </c>
     </row>
   </sheetData>
@@ -9413,28 +9413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1373.438666494629</v>
+        <v>1523.635843629105</v>
       </c>
       <c r="AB2" t="n">
-        <v>1879.19937533556</v>
+        <v>2084.70577932275</v>
       </c>
       <c r="AC2" t="n">
-        <v>1699.851224426421</v>
+        <v>1885.744385647123</v>
       </c>
       <c r="AD2" t="n">
-        <v>1373438.666494629</v>
+        <v>1523635.843629105</v>
       </c>
       <c r="AE2" t="n">
-        <v>1879199.37533556</v>
+        <v>2084705.779322749</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.217897946575447e-07</v>
+        <v>1.355438870904085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.43287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1699851.224426421</v>
+        <v>1885744.385647123</v>
       </c>
     </row>
     <row r="3">
@@ -9519,28 +9519,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>918.418904197937</v>
+        <v>1035.352649046419</v>
       </c>
       <c r="AB3" t="n">
-        <v>1256.62126250607</v>
+        <v>1416.615170960499</v>
       </c>
       <c r="AC3" t="n">
-        <v>1136.691092891508</v>
+        <v>1281.415407275908</v>
       </c>
       <c r="AD3" t="n">
-        <v>918418.904197937</v>
+        <v>1035352.649046419</v>
       </c>
       <c r="AE3" t="n">
-        <v>1256621.26250607</v>
+        <v>1416615.170960499</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.193823910293971e-06</v>
+        <v>1.755449390311727e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.58564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>1136691.092891508</v>
+        <v>1281415.407275908</v>
       </c>
     </row>
     <row r="4">
@@ -9625,28 +9625,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>798.676806572033</v>
+        <v>907.0814530982761</v>
       </c>
       <c r="AB4" t="n">
-        <v>1092.784841885791</v>
+        <v>1241.108861738472</v>
       </c>
       <c r="AC4" t="n">
-        <v>988.4909903093688</v>
+        <v>1122.659173881379</v>
       </c>
       <c r="AD4" t="n">
-        <v>798676.806572033</v>
+        <v>907081.4530982762</v>
       </c>
       <c r="AE4" t="n">
-        <v>1092784.841885791</v>
+        <v>1241108.861738472</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.297536916880359e-06</v>
+        <v>1.907953400835892e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.46180555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>988490.9903093688</v>
+        <v>1122659.173881379</v>
       </c>
     </row>
     <row r="5">
@@ -9731,28 +9731,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>733.1695531687932</v>
+        <v>833.3010344279613</v>
       </c>
       <c r="AB5" t="n">
-        <v>1003.154927803423</v>
+        <v>1140.159237951399</v>
       </c>
       <c r="AC5" t="n">
-        <v>907.4152294306471</v>
+        <v>1031.344040504858</v>
       </c>
       <c r="AD5" t="n">
-        <v>733169.5531687932</v>
+        <v>833301.0344279613</v>
       </c>
       <c r="AE5" t="n">
-        <v>1003154.927803423</v>
+        <v>1140159.237951399</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.353479416466882e-06</v>
+        <v>1.990213628617302e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.44907407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>907415.2294306471</v>
+        <v>1031344.040504857</v>
       </c>
     </row>
     <row r="6">
@@ -9837,28 +9837,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>699.3633895032939</v>
+        <v>791.3070463499588</v>
       </c>
       <c r="AB6" t="n">
-        <v>956.8998432536052</v>
+        <v>1082.701210819075</v>
       </c>
       <c r="AC6" t="n">
-        <v>865.5746652308452</v>
+        <v>979.3697268391949</v>
       </c>
       <c r="AD6" t="n">
-        <v>699363.3895032939</v>
+        <v>791307.0463499587</v>
       </c>
       <c r="AE6" t="n">
-        <v>956899.8432536052</v>
+        <v>1082701.210819075</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.379147151571287e-06</v>
+        <v>2.027956556658185e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.0150462962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>865574.6652308452</v>
+        <v>979369.7268391949</v>
       </c>
     </row>
     <row r="7">
@@ -9943,28 +9943,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>660.5739407272869</v>
+        <v>760.7906733324755</v>
       </c>
       <c r="AB7" t="n">
-        <v>903.8264081685677</v>
+        <v>1040.947362969193</v>
       </c>
       <c r="AC7" t="n">
-        <v>817.5664843012897</v>
+        <v>941.6008076262125</v>
       </c>
       <c r="AD7" t="n">
-        <v>660573.9407272869</v>
+        <v>760790.6733324756</v>
       </c>
       <c r="AE7" t="n">
-        <v>903826.4081685677</v>
+        <v>1040947.362969193</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.402291989635515e-06</v>
+        <v>2.06198970972069e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.63310185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>817566.4843012898</v>
+        <v>941600.8076262125</v>
       </c>
     </row>
     <row r="8">
@@ -10049,28 +10049,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>661.0985324856026</v>
+        <v>761.3152650907915</v>
       </c>
       <c r="AB8" t="n">
-        <v>904.5441777556505</v>
+        <v>1041.665132556276</v>
       </c>
       <c r="AC8" t="n">
-        <v>818.2157509663772</v>
+        <v>942.2500742912998</v>
       </c>
       <c r="AD8" t="n">
-        <v>661098.5324856027</v>
+        <v>761315.2650907915</v>
       </c>
       <c r="AE8" t="n">
-        <v>904544.1777556505</v>
+        <v>1041665.132556276</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.403992202858243e-06</v>
+        <v>2.064489775466987e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.60416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>818215.7509663772</v>
+        <v>942250.0742912998</v>
       </c>
     </row>
   </sheetData>
@@ -10346,28 +10346,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1829.543174851439</v>
+        <v>2001.01248681743</v>
       </c>
       <c r="AB2" t="n">
-        <v>2503.261685580123</v>
+        <v>2737.873562904147</v>
       </c>
       <c r="AC2" t="n">
-        <v>2264.353903658196</v>
+        <v>2476.574752690254</v>
       </c>
       <c r="AD2" t="n">
-        <v>1829543.174851439</v>
+        <v>2001012.48681743</v>
       </c>
       <c r="AE2" t="n">
-        <v>2503261.685580122</v>
+        <v>2737873.562904146</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.785095784190204e-07</v>
+        <v>1.126326254232343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.35185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>2264353.903658196</v>
+        <v>2476574.752690254</v>
       </c>
     </row>
     <row r="3">
@@ -10452,28 +10452,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1118.283665269115</v>
+        <v>1246.757660338889</v>
       </c>
       <c r="AB3" t="n">
-        <v>1530.085046014612</v>
+        <v>1705.868833941721</v>
       </c>
       <c r="AC3" t="n">
-        <v>1384.055876710827</v>
+        <v>1543.063106632268</v>
       </c>
       <c r="AD3" t="n">
-        <v>1118283.665269115</v>
+        <v>1246757.660338889</v>
       </c>
       <c r="AE3" t="n">
-        <v>1530085.046014612</v>
+        <v>1705868.833941721</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.077345874500577e-06</v>
+        <v>1.558674391396873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1384055.876710827</v>
+        <v>1543063.106632268</v>
       </c>
     </row>
     <row r="4">
@@ -10558,28 +10558,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>953.1757124165786</v>
+        <v>1064.741650124858</v>
       </c>
       <c r="AB4" t="n">
-        <v>1304.177060872974</v>
+        <v>1456.82649878724</v>
       </c>
       <c r="AC4" t="n">
-        <v>1179.708232607258</v>
+        <v>1317.789022411818</v>
       </c>
       <c r="AD4" t="n">
-        <v>953175.7124165785</v>
+        <v>1064741.650124858</v>
       </c>
       <c r="AE4" t="n">
-        <v>1304177.060872974</v>
+        <v>1456826.49878724</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.191851261289666e-06</v>
+        <v>1.724337636868419e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.70601851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>1179708.232607258</v>
+        <v>1317789.022411818</v>
       </c>
     </row>
     <row r="5">
@@ -10664,28 +10664,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>876.7135073853185</v>
+        <v>988.023512038434</v>
       </c>
       <c r="AB5" t="n">
-        <v>1199.558098674792</v>
+        <v>1351.857357692013</v>
       </c>
       <c r="AC5" t="n">
-        <v>1085.073957327635</v>
+        <v>1222.837988817605</v>
       </c>
       <c r="AD5" t="n">
-        <v>876713.5073853185</v>
+        <v>988023.5120384339</v>
       </c>
       <c r="AE5" t="n">
-        <v>1199558.098674792</v>
+        <v>1351857.357692013</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.253683111391217e-06</v>
+        <v>1.813794257631603e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.4386574074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>1085073.957327635</v>
+        <v>1222837.988817605</v>
       </c>
     </row>
     <row r="6">
@@ -10770,28 +10770,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>821.8968415462579</v>
+        <v>924.880784046208</v>
       </c>
       <c r="AB6" t="n">
-        <v>1124.55551813317</v>
+        <v>1265.462691592493</v>
       </c>
       <c r="AC6" t="n">
-        <v>1017.229517806123</v>
+        <v>1144.688708394948</v>
       </c>
       <c r="AD6" t="n">
-        <v>821896.8415462578</v>
+        <v>924880.784046208</v>
       </c>
       <c r="AE6" t="n">
-        <v>1124555.51813317</v>
+        <v>1265462.691592493</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.294869052640367e-06</v>
+        <v>1.873380945092011e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.65740740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>1017229.517806123</v>
+        <v>1144688.708394947</v>
       </c>
     </row>
     <row r="7">
@@ -10876,28 +10876,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>794.1264350057679</v>
+        <v>896.9397853051258</v>
       </c>
       <c r="AB7" t="n">
-        <v>1086.558822760602</v>
+        <v>1227.232584445077</v>
       </c>
       <c r="AC7" t="n">
-        <v>982.859173711215</v>
+        <v>1110.107229017389</v>
       </c>
       <c r="AD7" t="n">
-        <v>794126.435005768</v>
+        <v>896939.7853051259</v>
       </c>
       <c r="AE7" t="n">
-        <v>1086558.822760602</v>
+        <v>1227232.584445077</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.315991405543209e-06</v>
+        <v>1.903940184547927e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.28125</v>
       </c>
       <c r="AH7" t="n">
-        <v>982859.173711215</v>
+        <v>1110107.229017389</v>
       </c>
     </row>
     <row r="8">
@@ -10982,28 +10982,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>753.1331574575991</v>
+        <v>856.0317591029776</v>
       </c>
       <c r="AB8" t="n">
-        <v>1030.470011923429</v>
+        <v>1171.260418260554</v>
       </c>
       <c r="AC8" t="n">
-        <v>932.1234002592015</v>
+        <v>1059.476967816088</v>
       </c>
       <c r="AD8" t="n">
-        <v>753133.1574575991</v>
+        <v>856031.7591029776</v>
       </c>
       <c r="AE8" t="n">
-        <v>1030470.011923429</v>
+        <v>1171260.418260554</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.338807781736504e-06</v>
+        <v>1.936950290326123e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.88194444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>932123.4002592015</v>
+        <v>1059476.967816088</v>
       </c>
     </row>
     <row r="9">
@@ -11088,28 +11088,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>726.0932685693946</v>
+        <v>828.9918702147731</v>
       </c>
       <c r="AB9" t="n">
-        <v>993.4728430308818</v>
+        <v>1134.263249368007</v>
       </c>
       <c r="AC9" t="n">
-        <v>898.6571892399062</v>
+        <v>1026.010756796792</v>
       </c>
       <c r="AD9" t="n">
-        <v>726093.2685693946</v>
+        <v>828991.8702147731</v>
       </c>
       <c r="AE9" t="n">
-        <v>993472.8430308818</v>
+        <v>1134263.249368007</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.354953941223638e-06</v>
+        <v>1.960310109960344e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.60995370370371</v>
       </c>
       <c r="AH9" t="n">
-        <v>898657.1892399061</v>
+        <v>1026010.756796792</v>
       </c>
     </row>
     <row r="10">
@@ -11194,28 +11194,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>718.6950120469569</v>
+        <v>821.5936136923356</v>
       </c>
       <c r="AB10" t="n">
-        <v>983.3502220688401</v>
+        <v>1124.140628405965</v>
       </c>
       <c r="AC10" t="n">
-        <v>889.5006570152942</v>
+        <v>1016.85422457218</v>
       </c>
       <c r="AD10" t="n">
-        <v>718695.0120469569</v>
+        <v>821593.6136923356</v>
       </c>
       <c r="AE10" t="n">
-        <v>983350.2220688402</v>
+        <v>1124140.628405965</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.359083122994119e-06</v>
+        <v>1.966284096620899e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.54050925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>889500.6570152942</v>
+        <v>1016854.22457218</v>
       </c>
     </row>
     <row r="11">
@@ -11300,28 +11300,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>721.257518666904</v>
+        <v>824.1561203122826</v>
       </c>
       <c r="AB11" t="n">
-        <v>986.8563566760653</v>
+        <v>1127.64676301319</v>
       </c>
       <c r="AC11" t="n">
-        <v>892.6721710564966</v>
+        <v>1020.025738613383</v>
       </c>
       <c r="AD11" t="n">
-        <v>721257.5186669041</v>
+        <v>824156.1203122826</v>
       </c>
       <c r="AE11" t="n">
-        <v>986856.3566760652</v>
+        <v>1127646.76301319</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.359083122994119e-06</v>
+        <v>1.966284096620899e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.54050925925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>892672.1710564966</v>
+        <v>1020025.738613383</v>
       </c>
     </row>
   </sheetData>
@@ -11597,28 +11597,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1009.439678716869</v>
+        <v>1130.791565868832</v>
       </c>
       <c r="AB2" t="n">
-        <v>1381.15990175604</v>
+        <v>1547.198907424775</v>
       </c>
       <c r="AC2" t="n">
-        <v>1249.34393920254</v>
+        <v>1399.536415207459</v>
       </c>
       <c r="AD2" t="n">
-        <v>1009439.678716869</v>
+        <v>1130791.565868832</v>
       </c>
       <c r="AE2" t="n">
-        <v>1381159.901756041</v>
+        <v>1547198.907424775</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.095881823063804e-06</v>
+        <v>1.645668872495335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.24305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1249343.93920254</v>
+        <v>1399536.415207459</v>
       </c>
     </row>
     <row r="3">
@@ -11703,28 +11703,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>724.9289158533037</v>
+        <v>830.0890950303184</v>
       </c>
       <c r="AB3" t="n">
-        <v>991.87972427711</v>
+        <v>1135.764520766778</v>
       </c>
       <c r="AC3" t="n">
-        <v>897.2161155040383</v>
+        <v>1027.368748960313</v>
       </c>
       <c r="AD3" t="n">
-        <v>724928.9158533037</v>
+        <v>830089.0950303184</v>
       </c>
       <c r="AE3" t="n">
-        <v>991879.72427711</v>
+        <v>1135764.520766778</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.336076668422027e-06</v>
+        <v>2.00636577614025e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.80902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>897216.1155040383</v>
+        <v>1027368.748960313</v>
       </c>
     </row>
     <row r="4">
@@ -11809,28 +11809,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>639.2350754234604</v>
+        <v>736.2141940212556</v>
       </c>
       <c r="AB4" t="n">
-        <v>874.6296312555761</v>
+        <v>1007.320739737836</v>
       </c>
       <c r="AC4" t="n">
-        <v>791.1562067989405</v>
+        <v>911.183462120794</v>
       </c>
       <c r="AD4" t="n">
-        <v>639235.0754234605</v>
+        <v>736214.1940212556</v>
       </c>
       <c r="AE4" t="n">
-        <v>874629.6312555762</v>
+        <v>1007320.739737836</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.424846818709401e-06</v>
+        <v>2.139670545012357e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.26388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>791156.2067989405</v>
+        <v>911183.462120794</v>
       </c>
     </row>
     <row r="5">
@@ -11915,28 +11915,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>599.2078154695</v>
+        <v>696.2721854133157</v>
       </c>
       <c r="AB5" t="n">
-        <v>819.8625683084878</v>
+        <v>952.6703214433971</v>
       </c>
       <c r="AC5" t="n">
-        <v>741.6160354734666</v>
+        <v>861.7488030460325</v>
       </c>
       <c r="AD5" t="n">
-        <v>599207.8154695</v>
+        <v>696272.1854133157</v>
       </c>
       <c r="AE5" t="n">
-        <v>819862.5683084878</v>
+        <v>952670.3214433971</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.453024182542555e-06</v>
+        <v>2.181984058744664e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.80671296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>741616.0354734666</v>
+        <v>861748.8030460326</v>
       </c>
     </row>
     <row r="6">
@@ -12021,28 +12021,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>601.4189258296035</v>
+        <v>698.4832957734191</v>
       </c>
       <c r="AB6" t="n">
-        <v>822.887907050486</v>
+        <v>955.6956601853951</v>
       </c>
       <c r="AC6" t="n">
-        <v>744.3526401320179</v>
+        <v>864.4854077045838</v>
       </c>
       <c r="AD6" t="n">
-        <v>601418.9258296035</v>
+        <v>698483.2957734191</v>
       </c>
       <c r="AE6" t="n">
-        <v>822887.907050486</v>
+        <v>955695.6601853952</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.453711435318973e-06</v>
+        <v>2.183016095664964e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.80092592592592</v>
       </c>
       <c r="AH6" t="n">
-        <v>744352.6401320179</v>
+        <v>864485.4077045838</v>
       </c>
     </row>
   </sheetData>
@@ -12318,28 +12318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>771.227200493075</v>
+        <v>881.0712961816088</v>
       </c>
       <c r="AB2" t="n">
-        <v>1055.227079857408</v>
+        <v>1205.52061755795</v>
       </c>
       <c r="AC2" t="n">
-        <v>954.5176883763245</v>
+        <v>1090.467421777031</v>
       </c>
       <c r="AD2" t="n">
-        <v>771227.200493075</v>
+        <v>881071.2961816088</v>
       </c>
       <c r="AE2" t="n">
-        <v>1055227.079857408</v>
+        <v>1205520.61755795</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.257579357735408e-06</v>
+        <v>1.928808251387452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.45370370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>954517.6883763245</v>
+        <v>1090467.421777031</v>
       </c>
     </row>
     <row r="3">
@@ -12424,28 +12424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>581.210601870103</v>
+        <v>675.5089057750683</v>
       </c>
       <c r="AB3" t="n">
-        <v>795.2379866807652</v>
+        <v>924.2610862310983</v>
       </c>
       <c r="AC3" t="n">
-        <v>719.3415893554765</v>
+        <v>836.0509053697833</v>
       </c>
       <c r="AD3" t="n">
-        <v>581210.601870103</v>
+        <v>675508.9057750683</v>
       </c>
       <c r="AE3" t="n">
-        <v>795237.9866807652</v>
+        <v>924261.0862310983</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.464829390409639e-06</v>
+        <v>2.246677315207186e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.57060185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>719341.5893554764</v>
+        <v>836050.9053697833</v>
       </c>
     </row>
     <row r="4">
@@ -12530,28 +12530,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>558.5834697478332</v>
+        <v>652.7111814522062</v>
       </c>
       <c r="AB4" t="n">
-        <v>764.2785462724585</v>
+        <v>893.0682340479447</v>
       </c>
       <c r="AC4" t="n">
-        <v>691.3368744878911</v>
+        <v>807.8350552195469</v>
       </c>
       <c r="AD4" t="n">
-        <v>558583.4697478332</v>
+        <v>652711.1814522062</v>
       </c>
       <c r="AE4" t="n">
-        <v>764278.5462724585</v>
+        <v>893068.2340479447</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.492331481677003e-06</v>
+        <v>2.288858558275954e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.13657407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>691336.8744878911</v>
+        <v>807835.0552195469</v>
       </c>
     </row>
   </sheetData>
@@ -22464,28 +22464,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>618.0701422800662</v>
+        <v>717.7575234512543</v>
       </c>
       <c r="AB2" t="n">
-        <v>845.6708359978329</v>
+        <v>982.0675088131222</v>
       </c>
       <c r="AC2" t="n">
-        <v>764.961198316672</v>
+        <v>888.3403641124024</v>
       </c>
       <c r="AD2" t="n">
-        <v>618070.1422800662</v>
+        <v>717757.5234512544</v>
       </c>
       <c r="AE2" t="n">
-        <v>845670.8359978329</v>
+        <v>982067.5088131223</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.390947067479643e-06</v>
+        <v>2.173327355997575e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.67708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>764961.198316672</v>
+        <v>888340.3641124024</v>
       </c>
     </row>
     <row r="3">
@@ -22570,28 +22570,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>521.9402396586612</v>
+        <v>613.959360739758</v>
       </c>
       <c r="AB3" t="n">
-        <v>714.1416622792347</v>
+        <v>840.0462833395013</v>
       </c>
       <c r="AC3" t="n">
-        <v>645.9849843354218</v>
+        <v>759.8734450699421</v>
       </c>
       <c r="AD3" t="n">
-        <v>521940.2396586612</v>
+        <v>613959.360739758</v>
       </c>
       <c r="AE3" t="n">
-        <v>714141.6622792346</v>
+        <v>840046.2833395014</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.515236849364554e-06</v>
+        <v>2.367527688531366e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.57060185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>645984.9843354218</v>
+        <v>759873.4450699422</v>
       </c>
     </row>
   </sheetData>
@@ -22867,28 +22867,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>470.742363974505</v>
+        <v>565.5351940436461</v>
       </c>
       <c r="AB2" t="n">
-        <v>644.0904700773074</v>
+        <v>773.7902021424204</v>
       </c>
       <c r="AC2" t="n">
-        <v>582.6193795997808</v>
+        <v>699.9407512713167</v>
       </c>
       <c r="AD2" t="n">
-        <v>470742.363974505</v>
+        <v>565535.1940436461</v>
       </c>
       <c r="AE2" t="n">
-        <v>644090.4700773074</v>
+        <v>773790.2021424205</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.501455057250141e-06</v>
+        <v>2.446885471716279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.5324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>582619.3795997808</v>
+        <v>699940.7512713167</v>
       </c>
     </row>
   </sheetData>
@@ -23164,28 +23164,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1275.185375813441</v>
+        <v>1416.06710947961</v>
       </c>
       <c r="AB2" t="n">
-        <v>1744.764888396297</v>
+        <v>1937.525491661786</v>
       </c>
       <c r="AC2" t="n">
-        <v>1578.246976240655</v>
+        <v>1752.610778071692</v>
       </c>
       <c r="AD2" t="n">
-        <v>1275185.375813441</v>
+        <v>1416067.10947961</v>
       </c>
       <c r="AE2" t="n">
-        <v>1744764.888396297</v>
+        <v>1937525.491661786</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.623444054668682e-07</v>
+        <v>1.421749152213103e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.31018518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>1578246.976240655</v>
+        <v>1752610.778071692</v>
       </c>
     </row>
     <row r="3">
@@ -23270,28 +23270,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>873.9495287928179</v>
+        <v>981.7278207566728</v>
       </c>
       <c r="AB3" t="n">
-        <v>1195.776301226403</v>
+        <v>1343.243315134011</v>
       </c>
       <c r="AC3" t="n">
-        <v>1081.653089319934</v>
+        <v>1215.046058391454</v>
       </c>
       <c r="AD3" t="n">
-        <v>873949.5287928178</v>
+        <v>981727.8207566729</v>
       </c>
       <c r="AE3" t="n">
-        <v>1195776.301226403</v>
+        <v>1343243.315134011</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.226624907307795e-06</v>
+        <v>1.812192092707474e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.13425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>1081653.089319934</v>
+        <v>1215046.058391454</v>
       </c>
     </row>
     <row r="4">
@@ -23376,28 +23376,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>762.0736716980049</v>
+        <v>861.5547680226389</v>
       </c>
       <c r="AB4" t="n">
-        <v>1042.702817934804</v>
+        <v>1178.817242722392</v>
       </c>
       <c r="AC4" t="n">
-        <v>943.1887244337014</v>
+        <v>1066.312579557357</v>
       </c>
       <c r="AD4" t="n">
-        <v>762073.6716980049</v>
+        <v>861554.7680226389</v>
       </c>
       <c r="AE4" t="n">
-        <v>1042702.817934803</v>
+        <v>1178817.242722392</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.326277102405642e-06</v>
+        <v>1.959416332898078e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.17245370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>943188.7244337014</v>
+        <v>1066312.579557357</v>
       </c>
     </row>
     <row r="5">
@@ -23482,28 +23482,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>698.5859779752715</v>
+        <v>797.9817334453337</v>
       </c>
       <c r="AB5" t="n">
-        <v>955.8361545039887</v>
+        <v>1091.833812169379</v>
       </c>
       <c r="AC5" t="n">
-        <v>864.6124934425957</v>
+        <v>987.6307255343124</v>
       </c>
       <c r="AD5" t="n">
-        <v>698585.9779752715</v>
+        <v>797981.7334453337</v>
       </c>
       <c r="AE5" t="n">
-        <v>955836.1545039887</v>
+        <v>1091833.812169379</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.380673131080509e-06</v>
+        <v>2.039779981517964e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.21759259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>864612.4934425957</v>
+        <v>987630.7255343124</v>
       </c>
     </row>
     <row r="6">
@@ -23588,28 +23588,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>652.1816136630049</v>
+        <v>751.6626204790875</v>
       </c>
       <c r="AB6" t="n">
-        <v>892.3436560358773</v>
+        <v>1028.457958353917</v>
       </c>
       <c r="AC6" t="n">
-        <v>807.1796299159997</v>
+        <v>930.3033742584287</v>
       </c>
       <c r="AD6" t="n">
-        <v>652181.6136630049</v>
+        <v>751662.6204790876</v>
       </c>
       <c r="AE6" t="n">
-        <v>892343.6560358773</v>
+        <v>1028457.958353917</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.410086869600218e-06</v>
+        <v>2.083235274203461e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.73148148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>807179.6299159997</v>
+        <v>930303.3742584287</v>
       </c>
     </row>
     <row r="7">
@@ -23694,28 +23694,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>644.9881006146682</v>
+        <v>744.4691074307507</v>
       </c>
       <c r="AB7" t="n">
-        <v>882.501174127745</v>
+        <v>1018.615476445784</v>
       </c>
       <c r="AC7" t="n">
-        <v>798.2765006671692</v>
+        <v>921.4002450095983</v>
       </c>
       <c r="AD7" t="n">
-        <v>644988.1006146681</v>
+        <v>744469.1074307507</v>
       </c>
       <c r="AE7" t="n">
-        <v>882501.174127745</v>
+        <v>1018615.476445784</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.416457076624261e-06</v>
+        <v>2.092646495783183e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.63310185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>798276.5006671692</v>
+        <v>921400.2450095983</v>
       </c>
     </row>
   </sheetData>
@@ -23991,28 +23991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1707.522104899541</v>
+        <v>1869.487527526946</v>
       </c>
       <c r="AB2" t="n">
-        <v>2336.307074482256</v>
+        <v>2557.915311131221</v>
       </c>
       <c r="AC2" t="n">
-        <v>2113.333206321242</v>
+        <v>2313.791463893544</v>
       </c>
       <c r="AD2" t="n">
-        <v>1707522.104899541</v>
+        <v>1869487.527526947</v>
       </c>
       <c r="AE2" t="n">
-        <v>2336307.074482256</v>
+        <v>2557915.311131221</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.121547638148554e-07</v>
+        <v>1.179385983907271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.03240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>2113333.206321242</v>
+        <v>2313791.463893543</v>
       </c>
     </row>
     <row r="3">
@@ -24097,28 +24097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1062.974542331342</v>
+        <v>1190.738603232798</v>
       </c>
       <c r="AB3" t="n">
-        <v>1454.408663944858</v>
+        <v>1629.221088622789</v>
       </c>
       <c r="AC3" t="n">
-        <v>1315.60194233334</v>
+        <v>1473.730514550789</v>
       </c>
       <c r="AD3" t="n">
-        <v>1062974.542331342</v>
+        <v>1190738.603232798</v>
       </c>
       <c r="AE3" t="n">
-        <v>1454408.663944858</v>
+        <v>1629221.088622789</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.10445574880665e-06</v>
+        <v>1.603856417550138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.96875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1315601.94233334</v>
+        <v>1473730.514550789</v>
       </c>
     </row>
     <row r="4">
@@ -24203,28 +24203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>916.0530528216733</v>
+        <v>1026.759237550267</v>
       </c>
       <c r="AB4" t="n">
-        <v>1253.384200279069</v>
+        <v>1404.857286236906</v>
       </c>
       <c r="AC4" t="n">
-        <v>1133.762971340208</v>
+        <v>1270.77967856804</v>
       </c>
       <c r="AD4" t="n">
-        <v>916053.0528216733</v>
+        <v>1026759.237550267</v>
       </c>
       <c r="AE4" t="n">
-        <v>1253384.200279069</v>
+        <v>1404857.286236906</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.217191263836355e-06</v>
+        <v>1.767567439437233e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.37615740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>1133762.971340208</v>
+        <v>1270779.67856804</v>
       </c>
     </row>
     <row r="5">
@@ -24309,28 +24309,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>842.3100352332848</v>
+        <v>944.5725779757439</v>
       </c>
       <c r="AB5" t="n">
-        <v>1152.485750302307</v>
+        <v>1292.40587278752</v>
       </c>
       <c r="AC5" t="n">
-        <v>1042.494127817364</v>
+        <v>1169.060470191713</v>
       </c>
       <c r="AD5" t="n">
-        <v>842310.0352332848</v>
+        <v>944572.5779757439</v>
       </c>
       <c r="AE5" t="n">
-        <v>1152485.750302307</v>
+        <v>1292405.87278752</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.278309713035699e-06</v>
+        <v>1.856321757647803e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1042494.127817364</v>
+        <v>1169060.470191713</v>
       </c>
     </row>
     <row r="6">
@@ -24415,28 +24415,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>790.1558586425554</v>
+        <v>892.3330605304429</v>
       </c>
       <c r="AB6" t="n">
-        <v>1081.126105010988</v>
+        <v>1220.929460374003</v>
       </c>
       <c r="AC6" t="n">
-        <v>977.9449469187572</v>
+        <v>1104.405666261167</v>
       </c>
       <c r="AD6" t="n">
-        <v>790155.8586425553</v>
+        <v>892333.060530443</v>
       </c>
       <c r="AE6" t="n">
-        <v>1081126.105010988</v>
+        <v>1220929.460374003</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.316902410652402e-06</v>
+        <v>1.912364877356312e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.45486111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>977944.9469187572</v>
+        <v>1104405.666261167</v>
       </c>
     </row>
     <row r="7">
@@ -24521,28 +24521,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>758.9456126769071</v>
+        <v>852.7645134332314</v>
       </c>
       <c r="AB7" t="n">
-        <v>1038.422869581913</v>
+        <v>1166.790028594501</v>
       </c>
       <c r="AC7" t="n">
-        <v>939.3172483446656</v>
+        <v>1055.433225865532</v>
       </c>
       <c r="AD7" t="n">
-        <v>758945.6126769071</v>
+        <v>852764.5134332314</v>
       </c>
       <c r="AE7" t="n">
-        <v>1038422.869581913</v>
+        <v>1166790.028594501</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.340442354841843e-06</v>
+        <v>1.94654885493785e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.04398148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>939317.2483446656</v>
+        <v>1055433.225865532</v>
       </c>
     </row>
     <row r="8">
@@ -24627,28 +24627,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>718.6696452579603</v>
+        <v>820.9320984918685</v>
       </c>
       <c r="AB8" t="n">
-        <v>983.3155141090311</v>
+        <v>1123.235514124695</v>
       </c>
       <c r="AC8" t="n">
-        <v>889.4692615344565</v>
+        <v>1016.035493127579</v>
       </c>
       <c r="AD8" t="n">
-        <v>718669.6452579603</v>
+        <v>820932.0984918685</v>
       </c>
       <c r="AE8" t="n">
-        <v>983315.5141090312</v>
+        <v>1123235.514124695</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.360886342652628e-06</v>
+        <v>1.976236980592565e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.69675925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>889469.2615344564</v>
+        <v>1016035.493127579</v>
       </c>
     </row>
     <row r="9">
@@ -24733,28 +24733,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>705.0899036077012</v>
+        <v>807.3523568416092</v>
       </c>
       <c r="AB9" t="n">
-        <v>964.7351124872272</v>
+        <v>1104.655112502891</v>
       </c>
       <c r="AC9" t="n">
-        <v>872.6621473656799</v>
+        <v>999.2283789588022</v>
       </c>
       <c r="AD9" t="n">
-        <v>705089.9036077012</v>
+        <v>807352.3568416092</v>
       </c>
       <c r="AE9" t="n">
-        <v>964735.1124872272</v>
+        <v>1104655.112502891</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.368359340808006e-06</v>
+        <v>1.987089036967656e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.57523148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>872662.1473656798</v>
+        <v>999228.3789588022</v>
       </c>
     </row>
     <row r="10">
@@ -24839,28 +24839,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>707.4765860945056</v>
+        <v>809.7390393284136</v>
       </c>
       <c r="AB10" t="n">
-        <v>968.000676758673</v>
+        <v>1107.920676774337</v>
       </c>
       <c r="AC10" t="n">
-        <v>875.616050766307</v>
+        <v>1002.182282359429</v>
       </c>
       <c r="AD10" t="n">
-        <v>707476.5860945056</v>
+        <v>809739.0393284135</v>
       </c>
       <c r="AE10" t="n">
-        <v>968000.6767586729</v>
+        <v>1107920.676774337</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.367985690900237e-06</v>
+        <v>1.986546434148902e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.58101851851852</v>
       </c>
       <c r="AH10" t="n">
-        <v>875616.050766307</v>
+        <v>1002182.282359429</v>
       </c>
     </row>
   </sheetData>
@@ -25136,28 +25136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>458.3866699076359</v>
+        <v>564.9509477524094</v>
       </c>
       <c r="AB2" t="n">
-        <v>627.1848643602658</v>
+        <v>772.9908105916231</v>
       </c>
       <c r="AC2" t="n">
-        <v>567.327221165207</v>
+        <v>699.2176525281744</v>
       </c>
       <c r="AD2" t="n">
-        <v>458386.6699076359</v>
+        <v>564950.9477524094</v>
       </c>
       <c r="AE2" t="n">
-        <v>627184.8643602658</v>
+        <v>772990.8105916232</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.425814003383292e-06</v>
+        <v>2.376746995007844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.83564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>567327.221165207</v>
+        <v>699217.6525281745</v>
       </c>
     </row>
   </sheetData>
@@ -25433,28 +25433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>849.8058068596563</v>
+        <v>968.6879884417306</v>
       </c>
       <c r="AB2" t="n">
-        <v>1162.741795731614</v>
+        <v>1325.401641283906</v>
       </c>
       <c r="AC2" t="n">
-        <v>1051.771350665348</v>
+        <v>1198.907168852656</v>
       </c>
       <c r="AD2" t="n">
-        <v>849805.8068596562</v>
+        <v>968687.9884417306</v>
       </c>
       <c r="AE2" t="n">
-        <v>1162741.795731614</v>
+        <v>1325401.641283906</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.198215142443172e-06</v>
+        <v>1.823571559531644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.39120370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>1051771.350665348</v>
+        <v>1198907.168852656</v>
       </c>
     </row>
     <row r="3">
@@ -25539,28 +25539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>626.8370827393903</v>
+        <v>729.9194337158534</v>
       </c>
       <c r="AB3" t="n">
-        <v>857.6661507043964</v>
+        <v>998.7079709827598</v>
       </c>
       <c r="AC3" t="n">
-        <v>775.8116970231708</v>
+        <v>903.3926839276052</v>
       </c>
       <c r="AD3" t="n">
-        <v>626837.0827393903</v>
+        <v>729919.4337158534</v>
       </c>
       <c r="AE3" t="n">
-        <v>857666.1507043964</v>
+        <v>998707.9709827597</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.420433434977526e-06</v>
+        <v>2.161767050407398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.95254629629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>775811.6970231709</v>
+        <v>903392.6839276052</v>
       </c>
     </row>
     <row r="4">
@@ -25645,28 +25645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>566.844978062781</v>
+        <v>662.070128918</v>
       </c>
       <c r="AB4" t="n">
-        <v>775.5823064209937</v>
+        <v>905.8735588582656</v>
       </c>
       <c r="AC4" t="n">
-        <v>701.5618196327772</v>
+        <v>819.4182578023571</v>
       </c>
       <c r="AD4" t="n">
-        <v>566844.978062781</v>
+        <v>662070.128918</v>
       </c>
       <c r="AE4" t="n">
-        <v>775582.3064209938</v>
+        <v>905873.5588582656</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.479515282595786e-06</v>
+        <v>2.25168410552119e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.99189814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>701561.8196327772</v>
+        <v>819418.2578023571</v>
       </c>
     </row>
     <row r="5">
@@ -25751,28 +25751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>568.2116585799241</v>
+        <v>663.436809435143</v>
       </c>
       <c r="AB5" t="n">
-        <v>777.452258998238</v>
+        <v>907.7435114355096</v>
       </c>
       <c r="AC5" t="n">
-        <v>703.253306560544</v>
+        <v>821.1097447301239</v>
       </c>
       <c r="AD5" t="n">
-        <v>568211.6585799241</v>
+        <v>663436.809435143</v>
       </c>
       <c r="AE5" t="n">
-        <v>777452.258998238</v>
+        <v>907743.5114355097</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.48163164728659e-06</v>
+        <v>2.254905014958102e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.96296296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>703253.3065605441</v>
+        <v>821109.7447301239</v>
       </c>
     </row>
   </sheetData>
@@ -26048,28 +26048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1094.796714496603</v>
+        <v>1225.28566074451</v>
       </c>
       <c r="AB2" t="n">
-        <v>1497.949163796523</v>
+        <v>1676.489896818925</v>
       </c>
       <c r="AC2" t="n">
-        <v>1354.986997988638</v>
+        <v>1516.488054034874</v>
       </c>
       <c r="AD2" t="n">
-        <v>1094796.714496603</v>
+        <v>1225285.66074451</v>
       </c>
       <c r="AE2" t="n">
-        <v>1497949.163796523</v>
+        <v>1676489.896818925</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.048517864366349e-06</v>
+        <v>1.565343532584952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.23842592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>1354986.997988638</v>
+        <v>1516488.054034875</v>
       </c>
     </row>
     <row r="3">
@@ -26154,28 +26154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>776.8474286140328</v>
+        <v>882.837711402846</v>
       </c>
       <c r="AB3" t="n">
-        <v>1062.916923919468</v>
+        <v>1207.937504792386</v>
       </c>
       <c r="AC3" t="n">
-        <v>961.4736245138655</v>
+        <v>1092.653644685936</v>
       </c>
       <c r="AD3" t="n">
-        <v>776847.4286140328</v>
+        <v>882837.711402846</v>
       </c>
       <c r="AE3" t="n">
-        <v>1062916.923919468</v>
+        <v>1207937.504792386</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.298011345938649e-06</v>
+        <v>1.937815019312858e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.23726851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>961473.6245138654</v>
+        <v>1092653.644685936</v>
       </c>
     </row>
     <row r="4">
@@ -26260,28 +26260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>677.534786420027</v>
+        <v>775.5294402564015</v>
       </c>
       <c r="AB4" t="n">
-        <v>927.0329855050771</v>
+        <v>1061.113594103014</v>
       </c>
       <c r="AC4" t="n">
-        <v>838.5582584674386</v>
+        <v>959.8424019641047</v>
       </c>
       <c r="AD4" t="n">
-        <v>677534.786420027</v>
+        <v>775529.4402564014</v>
       </c>
       <c r="AE4" t="n">
-        <v>927032.9855050772</v>
+        <v>1061113.594103014</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.391288400755153e-06</v>
+        <v>2.077069331955233e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.54166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>838558.2584674386</v>
+        <v>959842.4019641047</v>
       </c>
     </row>
     <row r="5">
@@ -26366,28 +26366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>614.8992997197885</v>
+        <v>712.8086127015911</v>
       </c>
       <c r="AB5" t="n">
-        <v>841.3323493191605</v>
+        <v>975.2961907948996</v>
       </c>
       <c r="AC5" t="n">
-        <v>761.0367707175075</v>
+        <v>882.2152911822345</v>
       </c>
       <c r="AD5" t="n">
-        <v>614899.2997197885</v>
+        <v>712808.6127015911</v>
       </c>
       <c r="AE5" t="n">
-        <v>841332.3493191605</v>
+        <v>975296.1907948996</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.44353034347095e-06</v>
+        <v>2.155061886912097e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.69097222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>761036.7707175075</v>
+        <v>882215.2911822345</v>
       </c>
     </row>
     <row r="6">
@@ -26472,28 +26472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>612.6838802514881</v>
+        <v>710.5931932332907</v>
       </c>
       <c r="AB6" t="n">
-        <v>838.3011146652227</v>
+        <v>972.264956140962</v>
       </c>
       <c r="AC6" t="n">
-        <v>758.2948328445771</v>
+        <v>879.4733533093042</v>
       </c>
       <c r="AD6" t="n">
-        <v>612683.8802514881</v>
+        <v>710593.1932332907</v>
       </c>
       <c r="AE6" t="n">
-        <v>838301.1146652227</v>
+        <v>972264.956140962</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.445284948264222e-06</v>
+        <v>2.157681355171754e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.66203703703703</v>
       </c>
       <c r="AH6" t="n">
-        <v>758294.832844577</v>
+        <v>879473.3533093042</v>
       </c>
     </row>
   </sheetData>
